--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\5IF\Experimentation_CSEng\CourseProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F82F3EF-3C7B-412E-B0A5-F1C6D7F5588C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8022F89-2F1B-4A15-8633-10508E7A397E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{2755CB44-5DB3-46B6-B0C3-785124609ADE}"/>
   </bookViews>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BF03AF-E535-4CCD-89CC-4948C49D43B1}">
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F5">
         <v>716</v>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="F6">
         <v>770</v>
@@ -782,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="F16">
         <v>809</v>
@@ -805,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="F17">
         <v>710</v>
@@ -828,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="F18">
         <v>650</v>
@@ -897,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="F21">
         <v>817</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="F23">
         <v>722</v>
@@ -1035,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="F27">
         <v>656</v>
@@ -1081,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="F29">
         <v>753</v>
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F32">
         <v>745</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F36">
         <v>696</v>
@@ -1265,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="F37">
         <v>724</v>
@@ -1426,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F44">
         <v>39</v>
@@ -1449,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F45">
         <v>42</v>
@@ -1472,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F46">
         <v>45</v>
@@ -1518,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F48">
         <v>47</v>
@@ -2369,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="E85">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F85">
         <v>202</v>
@@ -2714,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="E100">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F100">
         <v>208</v>
@@ -2737,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="E101">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F101">
         <v>179</v>
